--- a/static/Data 50.xlsx
+++ b/static/Data 50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDANT PCE\SLR FRONTEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD421D15-4BA5-4F77-89D7-38F397D415A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A7F7F8-9EE7-4FA9-B724-21C666DA7924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="1395" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,607 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1122,7 +1722,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2278,69 +2878,69 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B19:B40">
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="EXPO">
+    <cfRule type="containsText" dxfId="88" priority="34" operator="containsText" text="EXPO">
       <formula>NOT(ISERROR(SEARCH("EXPO",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 B8:B17">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="EXPO">
+    <cfRule type="containsText" dxfId="87" priority="30" operator="containsText" text="EXPO">
       <formula>NOT(ISERROR(SEARCH("EXPO",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="EXPO">
+    <cfRule type="containsText" dxfId="86" priority="20" operator="containsText" text="EXPO">
       <formula>NOT(ISERROR(SEARCH("EXPO",B42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="EXPO">
+    <cfRule type="containsText" dxfId="85" priority="19" operator="containsText" text="EXPO">
       <formula>NOT(ISERROR(SEARCH("EXPO",B44)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B50">
+    <cfRule type="containsText" dxfId="84" priority="2" operator="containsText" text="EXPO">
+      <formula>NOT(ISERROR(SEARCH("EXPO",B46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="24" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C34">
-    <cfRule type="duplicateValues" dxfId="21" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C41">
-    <cfRule type="duplicateValues" dxfId="18" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C45">
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C51">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B50">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="EXPO">
-      <formula>NOT(ISERROR(SEARCH("EXPO",B46)))</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="62" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
